--- a/results/I3_N5_M2_T15_C150_DepCentral_s4_mean_res.xlsx
+++ b/results/I3_N5_M2_T15_C150_DepCentral_s4_mean_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>855.4707425475316</v>
+        <v>422.7307425503977</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1510000228881836</v>
+        <v>0.2039999961853027</v>
       </c>
     </row>
     <row r="5">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.175153539594581</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.175153539594581</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>680.3299999971339</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>152.41</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,17 +580,6 @@
         <is>
           <t>alpha</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -780,7 +769,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -871,7 +860,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6.615951731952279</v>
+        <v>5.966239078783629</v>
       </c>
     </row>
     <row r="5">
@@ -887,7 +876,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>4.350287346831241</v>
       </c>
     </row>
     <row r="7">
@@ -925,7 +914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -953,20 +942,6 @@
         <is>
           <t>y</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B2" t="n">
-        <v>7</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1024,7 +999,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>166.1510000000252</v>
+        <v>117.4</v>
       </c>
     </row>
     <row r="4">
@@ -1035,7 +1010,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>145.6339999997794</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5">
@@ -1046,7 +1021,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>201.8819999997016</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6">
@@ -1057,7 +1032,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>64.27299999994452</v>
+        <v>49.2</v>
       </c>
     </row>
     <row r="7">
@@ -1068,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>62.29499999999825</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8">
@@ -1079,7 +1054,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>166.1510000000616</v>
+        <v>117.4</v>
       </c>
     </row>
     <row r="9">
@@ -1090,7 +1065,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>201.8819999996527</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -1137,7 +1112,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>16.15100000006134</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1148,7 +1123,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>51.88199999965205</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1206,7 +1181,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>6.011</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="4">
@@ -1228,7 +1203,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>4.272</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
@@ -1239,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>4.958</v>
+        <v>7.4</v>
       </c>
     </row>
   </sheetData>
@@ -1253,7 +1228,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1280,23 +1255,12 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
         <v>1</v>
       </c>
     </row>
